--- a/static/docs/job_search.xlsx
+++ b/static/docs/job_search.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\static\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4E873-A824-48F5-BD35-F4D8412FC368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06C8C22-7F0F-4B38-8830-9A63E02FA247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -851,11 +851,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -996,11 +996,11 @@
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,11 +1177,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1359,11 +1359,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1542,11 +1542,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,11 +1579,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,11 +1689,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1837,11 +1837,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,11 +1947,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,11 +1984,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2202,11 +2202,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2239,11 +2239,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K44" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2312,11 +2312,11 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="J44" s="4">
         <f ca="1">TODAY()</f>
-        <v>45075</v>
+        <v>45091</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
